--- a/output/cohen_kappa.xlsx
+++ b/output/cohen_kappa.xlsx
@@ -9,6 +9,17 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Fleiss' Kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor p</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,12 +350,18 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0.9296</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.9296</v>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
